--- a/big_fit/testing/compiled_data.xlsx
+++ b/big_fit/testing/compiled_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Documents\GitHub\CAGE_scripts\big_fit\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC75E93D-F11F-42BE-93DA-D211006CFD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB9B78C-2227-4807-9DB3-D306EBC18FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-1890" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="174">
   <si>
     <t>CAGE#</t>
   </si>
@@ -262,6 +262,9 @@
     <t>Rep3</t>
   </si>
   <si>
+    <t>Comparison_Group</t>
+  </si>
+  <si>
     <t>CAGE3526</t>
   </si>
   <si>
@@ -280,9 +283,6 @@
     <t>Miller-Plate61-B02</t>
   </si>
   <si>
-    <t>GIMEN d7</t>
-  </si>
-  <si>
     <t>Miller-Plate61-C02</t>
   </si>
   <si>
@@ -292,9 +292,6 @@
     <t>Miller-Plate61-D02</t>
   </si>
   <si>
-    <t>GIMEN d21</t>
-  </si>
-  <si>
     <t>Miller-Plate61-E02</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>Miller-Plate62-A02</t>
   </si>
   <si>
-    <t>TTC642 d3</t>
-  </si>
-  <si>
     <t>Miller-Plate62-B02</t>
   </si>
   <si>
@@ -322,9 +316,6 @@
     <t>Miller-Plate62-D02</t>
   </si>
   <si>
-    <t>TTC642 d21</t>
-  </si>
-  <si>
     <t>Miller-Plate62-E02</t>
   </si>
   <si>
@@ -337,6 +328,9 @@
     <t>Miller-Plate66-E02</t>
   </si>
   <si>
+    <t>KD d3</t>
+  </si>
+  <si>
     <t>Miller-Plate66-E03</t>
   </si>
   <si>
@@ -358,6 +352,9 @@
     <t>Miller-Plate66-E06</t>
   </si>
   <si>
+    <t>KD d28</t>
+  </si>
+  <si>
     <t>Miller-Plate64-A10</t>
   </si>
   <si>
@@ -394,25 +391,172 @@
     <t>G402 d28</t>
   </si>
   <si>
-    <t>Comparison_Group</t>
-  </si>
-  <si>
-    <t>GIMEN g14 d3</t>
-  </si>
-  <si>
-    <t>GIMEN g14 d28</t>
-  </si>
-  <si>
-    <t>TTC642 g6 d7</t>
-  </si>
-  <si>
-    <t>TTC642 g6 d28</t>
-  </si>
-  <si>
-    <t>KD g4 d3</t>
-  </si>
-  <si>
-    <t>KD g4 d28</t>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g14_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g14_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g14_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g5_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g5_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g5_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g6_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g6_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_GIMEN-g6_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g14_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g14_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g14_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g5_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g5_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g5_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g6_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g6_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_TTC642-g6_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g14_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g14_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g14_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g5_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g5_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g5_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g6_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g6_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_KD-g6_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g14_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g14_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g14_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g5_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g5_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g5_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g6_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g6_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3525_hH2AZ2_F_R_3guides_all_indels_G402-g6_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_GIMEN-g19_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_GIMEN-g19_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_GIMEN-g19_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_TTC642-g19_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_TTC642-g19_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_TTC642-g19_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_KD-g19_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_KD-g19_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_KD-g19_rep3</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_G402-g19_rep1</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_G402-g19_rep2</t>
+  </si>
+  <si>
+    <t>CAGE3526_hH2AZ2_F_R_short_all_indels_G402-g19_rep3</t>
+  </si>
+  <si>
+    <t>GIMEN d3_g14</t>
+  </si>
+  <si>
+    <t>GIMEN d28_g14</t>
+  </si>
+  <si>
+    <t>TTC642 d3_g4</t>
+  </si>
+  <si>
+    <t>TTC642 d28_g4</t>
+  </si>
+  <si>
+    <t>GIMEN d7_g14</t>
+  </si>
+  <si>
+    <t>GIMEN d21_g14</t>
+  </si>
+  <si>
+    <t>TTC642 d7_g4</t>
+  </si>
+  <si>
+    <t>TTC642 d21_g4</t>
   </si>
 </sst>
 </file>
@@ -814,18 +958,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -856,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>71</v>
@@ -873,16 +1021,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>99.8</v>
@@ -907,16 +1055,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="F3">
         <v>81.8</v>
@@ -932,11 +1080,14 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J66" si="0">IF(I3&lt;&gt;"",_xlfn.CONCAT(B3,"_",E3,"_",I3),"")</f>
-        <v>CAGE3526_GIMEN g14 d3_initial</v>
+        <v>CAGE3526_GIMEN d3_g14_initial</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L66" si="1">IF(K3&lt;&gt;"",_xlfn.CONCAT(J3,"_",K3),"")</f>
-        <v/>
+        <v>CAGE3526_GIMEN d3_g14_initial_Rep1</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -947,16 +1098,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="F4">
         <v>79.7</v>
@@ -967,13 +1118,22 @@
       <c r="H4">
         <v>11.9</v>
       </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CAGE3526_GIMEN d7_g14_initial</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CAGE3526_GIMEN d7_g14_initial_Rep2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -981,13 +1141,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -1015,16 +1175,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="F6">
         <v>80.599999999999994</v>
@@ -1035,13 +1195,22 @@
       <c r="H6">
         <v>11</v>
       </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CAGE3526_GIMEN d21_g14_final</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CAGE3526_GIMEN d21_g14_final_Rep1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1049,16 +1218,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="F7">
         <v>80.7</v>
@@ -1074,11 +1243,14 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>CAGE3526_GIMEN g14 d28_final</v>
+        <v>CAGE3526_GIMEN d28_g14_final</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CAGE3526_GIMEN d28_g14_final_Rep2</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1089,16 +1261,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
         <v>87</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1123,16 +1295,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F9">
         <v>70.599999999999994</v>
@@ -1143,13 +1315,22 @@
       <c r="H9">
         <v>17.5</v>
       </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CAGE3526_TTC642 d3_g4_initial</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CAGE3526_TTC642 d3_g4_initial_Rep1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1157,16 +1338,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="F10">
         <v>59.2</v>
@@ -1182,14 +1363,17 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>CAGE3526_TTC642 g6 d7_initial</v>
+        <v>CAGE3526_TTC642 d7_g4_initial</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CAGE3526_TTC642 d7_g4_initial_Rep2</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1197,16 +1381,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11">
         <v>59.4</v>
@@ -1231,16 +1415,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="F12">
         <v>56.5</v>
@@ -1251,13 +1435,22 @@
       <c r="H12">
         <v>24.7</v>
       </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>CAGE3526_TTC642 d21_g4_final</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CAGE3526_TTC642 d21_g4_final_Rep1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1265,16 +1458,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="F13">
         <v>59.1</v>
@@ -1290,14 +1483,17 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>CAGE3526_TTC642 g6 d28_final</v>
+        <v>CAGE3526_TTC642 d28_g4_final</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CAGE3526_TTC642 d28_g4_final_Rep2</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1305,16 +1501,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F14">
         <v>99.8</v>
@@ -1339,16 +1535,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>83.6</v>
@@ -1359,19 +1555,13 @@
       <c r="H15">
         <v>9.4</v>
       </c>
-      <c r="I15" t="s">
-        <v>69</v>
-      </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>CAGE3526_KD g4 d3_initial</v>
+        <v/>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v/>
-      </c>
-      <c r="M15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1379,16 +1569,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F16">
         <v>81.099999999999994</v>
@@ -1408,21 +1598,21 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>78.7</v>
@@ -1442,21 +1632,21 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>81.3</v>
@@ -1476,21 +1666,21 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F19">
         <v>81.7</v>
@@ -1501,36 +1691,30 @@
       <c r="H19">
         <v>10.1</v>
       </c>
-      <c r="I19" t="s">
-        <v>68</v>
-      </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>CAGE3526_KD g4 d28_final</v>
+        <v/>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
         <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
       </c>
       <c r="F20">
         <v>99.9</v>
@@ -1550,21 +1734,21 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
         <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>110</v>
       </c>
       <c r="F21">
         <v>61</v>
@@ -1584,21 +1768,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>112</v>
       </c>
       <c r="F22">
         <v>38.5</v>
@@ -1618,21 +1802,21 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
         <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
       </c>
       <c r="F23">
         <v>37.9</v>
@@ -1652,21 +1836,21 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
         <v>115</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>116</v>
       </c>
       <c r="F24">
         <v>40.4</v>
@@ -1686,21 +1870,21 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
         <v>117</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" t="s">
-        <v>118</v>
       </c>
       <c r="F25">
         <v>44.3</v>
@@ -1720,7 +1904,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1733,7 +1917,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1746,7 +1930,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1759,7 +1943,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1772,7 +1956,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1785,7 +1969,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1798,7 +1982,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7029,6 +7213,9 @@
       <c r="A2" t="s">
         <v>68</v>
       </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
       <c r="H2" t="s">
         <v>73</v>
       </c>
@@ -7040,6 +7227,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
       <c r="H3" t="s">
         <v>74</v>
       </c>
@@ -7051,6 +7241,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
@@ -7059,241 +7252,376 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="J11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="J12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="J13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="J14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
       <c r="J15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
       <c r="J16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
       <c r="J17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
       <c r="J18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
       <c r="J19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
       <c r="J20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
       <c r="J21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
       <c r="J22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
       <c r="J24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
       <c r="J25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
       <c r="J26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
       <c r="J27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
       <c r="J30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
       <c r="J31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
       <c r="J32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
       <c r="J33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
       <c r="J34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
       <c r="J35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
       <c r="J36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
       <c r="J37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
       <c r="J38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
       <c r="J39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
       <c r="J40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
       <c r="J41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
       <c r="J42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
       <c r="J43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
       <c r="J44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
       <c r="J45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
       <c r="J46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
       <c r="J47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
       <c r="J48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
       <c r="J49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
         <v>67</v>
       </c>

--- a/big_fit/testing/compiled_data.xlsx
+++ b/big_fit/testing/compiled_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\STJUDE\DATA\ResearchHome\Groups\millergrp\home\common\Python\_pete\big_fit\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BDC0F-2FBA-4965-8627-0325BA380C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB58E8A-7676-4C33-9B1E-E5A71F98369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="time_plot" sheetId="4" r:id="rId2"/>
-    <sheet name="dont_touch" sheetId="2" r:id="rId3"/>
+    <sheet name="dont_touch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>CAGE#</t>
   </si>
@@ -58,15 +57,6 @@
     <t>Replicate</t>
   </si>
   <si>
-    <t>Guide_Name</t>
-  </si>
-  <si>
-    <t>Total-Indel</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
     <t>Day 3</t>
   </si>
   <si>
@@ -265,151 +255,64 @@
     <t>Comparison_Group</t>
   </si>
   <si>
-    <t>CAGE3526</t>
-  </si>
-  <si>
-    <t>Miller-Plate61-A10</t>
-  </si>
-  <si>
-    <t>hH2AZ2</t>
-  </si>
-  <si>
-    <t>GIMEN WT</t>
-  </si>
-  <si>
-    <t>Miller-Plate61-A02</t>
-  </si>
-  <si>
-    <t>Miller-Plate61-B02</t>
-  </si>
-  <si>
-    <t>GIMEN d7</t>
-  </si>
-  <si>
-    <t>Miller-Plate61-C02</t>
-  </si>
-  <si>
-    <t>GIMEN d14</t>
-  </si>
-  <si>
-    <t>Miller-Plate61-D02</t>
-  </si>
-  <si>
-    <t>GIMEN d21</t>
-  </si>
-  <si>
-    <t>Miller-Plate61-E02</t>
-  </si>
-  <si>
-    <t>Miller-Plate62-A10</t>
-  </si>
-  <si>
-    <t>TTC642 WT</t>
-  </si>
-  <si>
-    <t>Miller-Plate62-A02</t>
-  </si>
-  <si>
-    <t>Miller-Plate62-B02</t>
-  </si>
-  <si>
-    <t>Miller-Plate62-C02</t>
-  </si>
-  <si>
-    <t>TTC642 d14</t>
-  </si>
-  <si>
-    <t>Miller-Plate62-D02</t>
-  </si>
-  <si>
-    <t>Miller-Plate62-E02</t>
-  </si>
-  <si>
-    <t>Miller-Plate66-E01</t>
-  </si>
-  <si>
-    <t>KD WT</t>
-  </si>
-  <si>
-    <t>Miller-Plate66-E02</t>
-  </si>
-  <si>
-    <t>KD d3</t>
-  </si>
-  <si>
-    <t>Miller-Plate66-E03</t>
-  </si>
-  <si>
-    <t>KD d7</t>
-  </si>
-  <si>
-    <t>Miller-Plate66-E04</t>
-  </si>
-  <si>
-    <t>KD d14</t>
-  </si>
-  <si>
-    <t>Miller-Plate66-E05</t>
-  </si>
-  <si>
-    <t>KD d21</t>
-  </si>
-  <si>
-    <t>Miller-Plate66-E06</t>
-  </si>
-  <si>
-    <t>KD d28</t>
-  </si>
-  <si>
-    <t>Miller-Plate64-A10</t>
-  </si>
-  <si>
-    <t>G402 WT</t>
-  </si>
-  <si>
-    <t>Miller-Plate64-A02</t>
-  </si>
-  <si>
-    <t>G402 d3</t>
-  </si>
-  <si>
-    <t>Miller-Plate64-B02</t>
-  </si>
-  <si>
-    <t>G402 d7</t>
-  </si>
-  <si>
-    <t>Miller-Plate64-C02</t>
-  </si>
-  <si>
-    <t>G402 d14</t>
-  </si>
-  <si>
-    <t>Miller-Plate64-D02</t>
-  </si>
-  <si>
-    <t>G402 d21</t>
-  </si>
-  <si>
-    <t>Miller-Plate64-E02</t>
-  </si>
-  <si>
-    <t>G402 d28</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>TTC642_d21_g14</t>
-  </si>
-  <si>
-    <t>GIMEN d33 g4</t>
-  </si>
-  <si>
-    <t>GIMEN D1 g4</t>
-  </si>
-  <si>
-    <t>TTC642_d7_g14</t>
+    <t>CAGE3521</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B01</t>
+  </si>
+  <si>
+    <t>hSEPHS1</t>
+  </si>
+  <si>
+    <t>HCT116 WT</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B02</t>
+  </si>
+  <si>
+    <t>g5 D3</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B03</t>
+  </si>
+  <si>
+    <t>g5 D7</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B04</t>
+  </si>
+  <si>
+    <t>g5 D14</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B05</t>
+  </si>
+  <si>
+    <t>g5 D21</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B06</t>
+  </si>
+  <si>
+    <t>g10 D3</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B07</t>
+  </si>
+  <si>
+    <t>g10 D7</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B08</t>
+  </si>
+  <si>
+    <t>g10 D14</t>
+  </si>
+  <si>
+    <t>Miller-Plate81-B09</t>
+  </si>
+  <si>
+    <t>g10 D21</t>
   </si>
 </sst>
 </file>
@@ -507,7 +410,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -811,23 +729,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -842,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -854,19 +767,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -874,32 +787,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>99.75</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(I2&lt;&gt;"",_xlfn.CONCAT(B2,"_",E2,"_",I2),"")</f>
+        <f>SUBSTITUTE(SUBSTITUTE(IF(I2&lt;&gt;"",_xlfn.CONCAT(B2,"_",E2,"_",I2),""),"_",".")," ",".")</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f>IF(K2&lt;&gt;"",_xlfn.CONCAT(J2,"_",K2),"")</f>
+        <f t="shared" ref="L2:L11" si="0">IF(K2&lt;&gt;"",_xlfn.CONCAT(J2,"_",K2),"")</f>
         <v/>
       </c>
     </row>
@@ -908,39 +821,33 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
       <c r="F3">
-        <v>81.8</v>
+        <v>40.15</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>18.53</v>
       </c>
       <c r="H3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
+        <v>41.31</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">IF(I3&lt;&gt;"",_xlfn.CONCAT(B3,"_",E3,"_",I3),"")</f>
-        <v>CAGE3526_GIMEN D1 g4_initial</v>
+        <f t="shared" ref="J3:J66" si="1">SUBSTITUTE(SUBSTITUTE(IF(I3&lt;&gt;"",_xlfn.CONCAT(B3,"_",E3,"_",I3),""),"_",".")," ",".")</f>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="1">IF(K3&lt;&gt;"",_xlfn.CONCAT(J3,"_",K3),"")</f>
-        <v/>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -948,32 +855,32 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>79.7</v>
+        <v>43.55</v>
       </c>
       <c r="G4">
-        <v>8.5</v>
+        <v>16.73</v>
       </c>
       <c r="H4">
-        <v>11.9</v>
+        <v>39.72</v>
       </c>
       <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -982,32 +889,32 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>79.8</v>
+        <v>53.62</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>14.35</v>
       </c>
       <c r="H5">
-        <v>12.2</v>
+        <v>32.03</v>
       </c>
       <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1016,32 +923,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>80.599999999999994</v>
+        <v>64.91</v>
       </c>
       <c r="G6">
-        <v>8.4</v>
+        <v>11.76</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>23.33</v>
       </c>
       <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1050,39 +957,33 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F7">
-        <v>80.7</v>
+        <v>47.2</v>
       </c>
       <c r="G7">
-        <v>7.9</v>
+        <v>15.5</v>
       </c>
       <c r="H7">
-        <v>11.4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="0"/>
-        <v>CAGE3526_GIMEN d33 g4_final</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M7" t="s">
-        <v>16</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1090,32 +991,32 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
       <c r="F8">
-        <v>100</v>
+        <v>48.83</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>11.88</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1124,32 +1025,32 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
       <c r="F9">
-        <v>70.599999999999994</v>
+        <v>53.87</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11.85</v>
       </c>
       <c r="H9">
-        <v>17.5</v>
+        <v>34.29</v>
       </c>
       <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1158,72 +1059,45 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F10">
-        <v>59.2</v>
+        <v>66</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>10.97</v>
       </c>
       <c r="H10">
-        <v>22.9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
+        <v>23.03</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="0"/>
-        <v>CAGE3526_TTC642_d7_g14_initial</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M10" t="s">
-        <v>16</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>59.4</v>
-      </c>
-      <c r="G11">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H11">
-        <v>23.3</v>
-      </c>
       <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1231,73 +1105,25 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12">
-        <v>56.5</v>
-      </c>
-      <c r="G12">
-        <v>18.8</v>
-      </c>
-      <c r="H12">
-        <v>24.7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>CAGE3526_TTC642_d21_g14_final</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M12" t="s">
-        <v>16</v>
+        <f t="shared" ref="L12:L66" si="2">IF(K12&lt;&gt;"",_xlfn.CONCAT(J12,"_",K12),"")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13">
-        <v>59.1</v>
-      </c>
-      <c r="G13">
-        <v>19.2</v>
-      </c>
-      <c r="H13">
-        <v>21.7</v>
-      </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1305,33 +1131,12 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14">
-        <v>99.8</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.2</v>
-      </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1339,33 +1144,12 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15">
-        <v>83.6</v>
-      </c>
-      <c r="G15">
-        <v>7.1</v>
-      </c>
-      <c r="H15">
-        <v>9.4</v>
-      </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1373,33 +1157,12 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="G16">
-        <v>6.9</v>
-      </c>
-      <c r="H16">
-        <v>12</v>
-      </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1407,33 +1170,12 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17">
-        <v>78.7</v>
-      </c>
-      <c r="G17">
-        <v>10.1</v>
-      </c>
-      <c r="H17">
-        <v>11.3</v>
-      </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1441,33 +1183,12 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18">
-        <v>81.3</v>
-      </c>
-      <c r="G18">
-        <v>8.4</v>
-      </c>
-      <c r="H18">
-        <v>10.4</v>
-      </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1475,33 +1196,12 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19">
-        <v>81.7</v>
-      </c>
-      <c r="G19">
-        <v>8.1</v>
-      </c>
-      <c r="H19">
-        <v>10.1</v>
-      </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1509,33 +1209,12 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20">
-        <v>99.9</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0.1</v>
-      </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1543,33 +1222,12 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21">
-        <v>61</v>
-      </c>
-      <c r="G21">
-        <v>17.2</v>
-      </c>
-      <c r="H21">
-        <v>21.8</v>
-      </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1577,33 +1235,12 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22">
-        <v>38.5</v>
-      </c>
-      <c r="G22">
-        <v>24.9</v>
-      </c>
-      <c r="H22">
-        <v>36.700000000000003</v>
-      </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1611,33 +1248,12 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23">
-        <v>37.9</v>
-      </c>
-      <c r="G23">
-        <v>27.4</v>
-      </c>
-      <c r="H23">
-        <v>34.700000000000003</v>
-      </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1645,33 +1261,12 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24">
-        <v>40.4</v>
-      </c>
-      <c r="G24">
-        <v>25.6</v>
-      </c>
-      <c r="H24">
-        <v>34</v>
-      </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1679,33 +1274,12 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25">
-        <v>44.3</v>
-      </c>
-      <c r="G25">
-        <v>22.9</v>
-      </c>
-      <c r="H25">
-        <v>32.799999999999997</v>
-      </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1714,11 +1288,11 @@
         <v>25</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1727,11 +1301,11 @@
         <v>26</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1740,11 +1314,11 @@
         <v>27</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1753,11 +1327,11 @@
         <v>28</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1766,11 +1340,11 @@
         <v>29</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1779,11 +1353,11 @@
         <v>30</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1792,11 +1366,11 @@
         <v>31</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1805,11 +1379,11 @@
         <v>32</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1818,11 +1392,11 @@
         <v>33</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1831,11 +1405,11 @@
         <v>34</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1844,11 +1418,11 @@
         <v>35</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1857,11 +1431,11 @@
         <v>36</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1870,11 +1444,11 @@
         <v>37</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1883,11 +1457,11 @@
         <v>38</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1896,11 +1470,11 @@
         <v>39</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1909,11 +1483,11 @@
         <v>40</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1922,11 +1496,11 @@
         <v>41</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1935,11 +1509,11 @@
         <v>42</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1948,11 +1522,11 @@
         <v>43</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1961,11 +1535,11 @@
         <v>44</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1974,11 +1548,11 @@
         <v>45</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1987,11 +1561,11 @@
         <v>46</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2000,11 +1574,11 @@
         <v>47</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2013,11 +1587,11 @@
         <v>48</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2026,11 +1600,11 @@
         <v>49</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2039,11 +1613,11 @@
         <v>50</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2052,11 +1626,11 @@
         <v>51</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2065,11 +1639,11 @@
         <v>52</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2078,11 +1652,11 @@
         <v>53</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2091,11 +1665,11 @@
         <v>54</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2104,11 +1678,11 @@
         <v>55</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2117,11 +1691,11 @@
         <v>56</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2130,11 +1704,11 @@
         <v>57</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2143,11 +1717,11 @@
         <v>58</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2156,11 +1730,11 @@
         <v>59</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2169,11 +1743,11 @@
         <v>60</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2182,11 +1756,11 @@
         <v>61</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2195,11 +1769,11 @@
         <v>62</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2208,11 +1782,11 @@
         <v>63</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2221,11 +1795,11 @@
         <v>64</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2234,11 +1808,11 @@
         <v>65</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2247,11 +1821,11 @@
         <v>66</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" ref="J67:J130" si="2">IF(I67&lt;&gt;"",_xlfn.CONCAT(B67,"_",E67,"_",I67),"")</f>
+        <f t="shared" ref="J67:J130" si="3">SUBSTITUTE(SUBSTITUTE(IF(I67&lt;&gt;"",_xlfn.CONCAT(B67,"_",E67,"_",I67),""),"_",".")," ",".")</f>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L130" si="3">IF(K67&lt;&gt;"",_xlfn.CONCAT(J67,"_",K67),"")</f>
+        <f t="shared" ref="L67:L130" si="4">IF(K67&lt;&gt;"",_xlfn.CONCAT(J67,"_",K67),"")</f>
         <v/>
       </c>
     </row>
@@ -2260,11 +1834,11 @@
         <v>67</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2273,11 +1847,11 @@
         <v>68</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2286,11 +1860,11 @@
         <v>69</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2299,11 +1873,11 @@
         <v>70</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2312,11 +1886,11 @@
         <v>71</v>
       </c>
       <c r="J72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2325,11 +1899,11 @@
         <v>72</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2338,11 +1912,11 @@
         <v>73</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2351,11 +1925,11 @@
         <v>74</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2364,11 +1938,11 @@
         <v>75</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2377,11 +1951,11 @@
         <v>76</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2390,11 +1964,11 @@
         <v>77</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2403,11 +1977,11 @@
         <v>78</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2416,11 +1990,11 @@
         <v>79</v>
       </c>
       <c r="J80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2429,11 +2003,11 @@
         <v>80</v>
       </c>
       <c r="J81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2442,11 +2016,11 @@
         <v>81</v>
       </c>
       <c r="J82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2455,11 +2029,11 @@
         <v>82</v>
       </c>
       <c r="J83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2468,11 +2042,11 @@
         <v>83</v>
       </c>
       <c r="J84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2481,11 +2055,11 @@
         <v>84</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2494,11 +2068,11 @@
         <v>85</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2507,11 +2081,11 @@
         <v>86</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2520,11 +2094,11 @@
         <v>87</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2533,11 +2107,11 @@
         <v>88</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2546,11 +2120,11 @@
         <v>89</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2559,11 +2133,11 @@
         <v>90</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2572,11 +2146,11 @@
         <v>91</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2585,11 +2159,11 @@
         <v>92</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2598,11 +2172,11 @@
         <v>93</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2611,11 +2185,11 @@
         <v>94</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2624,11 +2198,11 @@
         <v>95</v>
       </c>
       <c r="J96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2637,11 +2211,11 @@
         <v>96</v>
       </c>
       <c r="J97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2650,11 +2224,11 @@
         <v>97</v>
       </c>
       <c r="J98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2663,11 +2237,11 @@
         <v>98</v>
       </c>
       <c r="J99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2676,11 +2250,11 @@
         <v>99</v>
       </c>
       <c r="J100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2689,11 +2263,11 @@
         <v>100</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2702,11 +2276,11 @@
         <v>101</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2715,11 +2289,11 @@
         <v>102</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2728,11 +2302,11 @@
         <v>103</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2741,11 +2315,11 @@
         <v>104</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2754,11 +2328,11 @@
         <v>105</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2767,11 +2341,11 @@
         <v>106</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2780,11 +2354,11 @@
         <v>107</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2793,11 +2367,11 @@
         <v>108</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2806,11 +2380,11 @@
         <v>109</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2819,11 +2393,11 @@
         <v>110</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2832,11 +2406,11 @@
         <v>111</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2845,11 +2419,11 @@
         <v>112</v>
       </c>
       <c r="J113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2858,11 +2432,11 @@
         <v>113</v>
       </c>
       <c r="J114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2871,11 +2445,11 @@
         <v>114</v>
       </c>
       <c r="J115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2884,11 +2458,11 @@
         <v>115</v>
       </c>
       <c r="J116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2897,11 +2471,11 @@
         <v>116</v>
       </c>
       <c r="J117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2910,11 +2484,11 @@
         <v>117</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2923,11 +2497,11 @@
         <v>118</v>
       </c>
       <c r="J119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2936,11 +2510,11 @@
         <v>119</v>
       </c>
       <c r="J120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2949,11 +2523,11 @@
         <v>120</v>
       </c>
       <c r="J121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2962,11 +2536,11 @@
         <v>121</v>
       </c>
       <c r="J122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2975,11 +2549,11 @@
         <v>122</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2988,11 +2562,11 @@
         <v>123</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3001,11 +2575,11 @@
         <v>124</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3014,11 +2588,11 @@
         <v>125</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3027,11 +2601,11 @@
         <v>126</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3040,11 +2614,11 @@
         <v>127</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3053,11 +2627,11 @@
         <v>128</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3066,11 +2640,11 @@
         <v>129</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3079,11 +2653,11 @@
         <v>130</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" ref="J131:J194" si="4">IF(I131&lt;&gt;"",_xlfn.CONCAT(B131,"_",E131,"_",I131),"")</f>
+        <f t="shared" ref="J131:J194" si="5">SUBSTITUTE(SUBSTITUTE(IF(I131&lt;&gt;"",_xlfn.CONCAT(B131,"_",E131,"_",I131),""),"_",".")," ",".")</f>
         <v/>
       </c>
       <c r="L131" t="str">
-        <f t="shared" ref="L131:L194" si="5">IF(K131&lt;&gt;"",_xlfn.CONCAT(J131,"_",K131),"")</f>
+        <f t="shared" ref="L131:L194" si="6">IF(K131&lt;&gt;"",_xlfn.CONCAT(J131,"_",K131),"")</f>
         <v/>
       </c>
     </row>
@@ -3092,11 +2666,11 @@
         <v>131</v>
       </c>
       <c r="J132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3105,11 +2679,11 @@
         <v>132</v>
       </c>
       <c r="J133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3118,11 +2692,11 @@
         <v>133</v>
       </c>
       <c r="J134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3131,11 +2705,11 @@
         <v>134</v>
       </c>
       <c r="J135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3144,11 +2718,11 @@
         <v>135</v>
       </c>
       <c r="J136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3157,11 +2731,11 @@
         <v>136</v>
       </c>
       <c r="J137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3170,11 +2744,11 @@
         <v>137</v>
       </c>
       <c r="J138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3183,11 +2757,11 @@
         <v>138</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3196,11 +2770,11 @@
         <v>139</v>
       </c>
       <c r="J140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3209,11 +2783,11 @@
         <v>140</v>
       </c>
       <c r="J141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3222,11 +2796,11 @@
         <v>141</v>
       </c>
       <c r="J142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3235,11 +2809,11 @@
         <v>142</v>
       </c>
       <c r="J143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3248,11 +2822,11 @@
         <v>143</v>
       </c>
       <c r="J144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3261,11 +2835,11 @@
         <v>144</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3274,11 +2848,11 @@
         <v>145</v>
       </c>
       <c r="J146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3287,11 +2861,11 @@
         <v>146</v>
       </c>
       <c r="J147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3300,11 +2874,11 @@
         <v>147</v>
       </c>
       <c r="J148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3313,11 +2887,11 @@
         <v>148</v>
       </c>
       <c r="J149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3326,11 +2900,11 @@
         <v>149</v>
       </c>
       <c r="J150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3339,11 +2913,11 @@
         <v>150</v>
       </c>
       <c r="J151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3352,11 +2926,11 @@
         <v>151</v>
       </c>
       <c r="J152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3365,11 +2939,11 @@
         <v>152</v>
       </c>
       <c r="J153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3378,11 +2952,11 @@
         <v>153</v>
       </c>
       <c r="J154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3391,11 +2965,11 @@
         <v>154</v>
       </c>
       <c r="J155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3404,11 +2978,11 @@
         <v>155</v>
       </c>
       <c r="J156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3417,11 +2991,11 @@
         <v>156</v>
       </c>
       <c r="J157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3430,11 +3004,11 @@
         <v>157</v>
       </c>
       <c r="J158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3443,11 +3017,11 @@
         <v>158</v>
       </c>
       <c r="J159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3456,11 +3030,11 @@
         <v>159</v>
       </c>
       <c r="J160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3469,11 +3043,11 @@
         <v>160</v>
       </c>
       <c r="J161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3482,11 +3056,11 @@
         <v>161</v>
       </c>
       <c r="J162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3495,11 +3069,11 @@
         <v>162</v>
       </c>
       <c r="J163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3508,11 +3082,11 @@
         <v>163</v>
       </c>
       <c r="J164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3521,11 +3095,11 @@
         <v>164</v>
       </c>
       <c r="J165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3534,11 +3108,11 @@
         <v>165</v>
       </c>
       <c r="J166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3547,11 +3121,11 @@
         <v>166</v>
       </c>
       <c r="J167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3560,11 +3134,11 @@
         <v>167</v>
       </c>
       <c r="J168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3573,11 +3147,11 @@
         <v>168</v>
       </c>
       <c r="J169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3586,11 +3160,11 @@
         <v>169</v>
       </c>
       <c r="J170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3599,11 +3173,11 @@
         <v>170</v>
       </c>
       <c r="J171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3612,11 +3186,11 @@
         <v>171</v>
       </c>
       <c r="J172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3625,11 +3199,11 @@
         <v>172</v>
       </c>
       <c r="J173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3638,11 +3212,11 @@
         <v>173</v>
       </c>
       <c r="J174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3651,11 +3225,11 @@
         <v>174</v>
       </c>
       <c r="J175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3664,11 +3238,11 @@
         <v>175</v>
       </c>
       <c r="J176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3677,11 +3251,11 @@
         <v>176</v>
       </c>
       <c r="J177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3690,11 +3264,11 @@
         <v>177</v>
       </c>
       <c r="J178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3703,11 +3277,11 @@
         <v>178</v>
       </c>
       <c r="J179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3716,11 +3290,11 @@
         <v>179</v>
       </c>
       <c r="J180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3729,11 +3303,11 @@
         <v>180</v>
       </c>
       <c r="J181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3742,11 +3316,11 @@
         <v>181</v>
       </c>
       <c r="J182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3755,11 +3329,11 @@
         <v>182</v>
       </c>
       <c r="J183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3768,11 +3342,11 @@
         <v>183</v>
       </c>
       <c r="J184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3781,11 +3355,11 @@
         <v>184</v>
       </c>
       <c r="J185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3794,11 +3368,11 @@
         <v>185</v>
       </c>
       <c r="J186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3807,11 +3381,11 @@
         <v>186</v>
       </c>
       <c r="J187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3820,11 +3394,11 @@
         <v>187</v>
       </c>
       <c r="J188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3833,11 +3407,11 @@
         <v>188</v>
       </c>
       <c r="J189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3846,11 +3420,11 @@
         <v>189</v>
       </c>
       <c r="J190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3859,11 +3433,11 @@
         <v>190</v>
       </c>
       <c r="J191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3872,11 +3446,11 @@
         <v>191</v>
       </c>
       <c r="J192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3885,11 +3459,11 @@
         <v>192</v>
       </c>
       <c r="J193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3898,11 +3472,11 @@
         <v>193</v>
       </c>
       <c r="J194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L194" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3911,11 +3485,11 @@
         <v>194</v>
       </c>
       <c r="J195" t="str">
-        <f t="shared" ref="J195:J251" si="6">IF(I195&lt;&gt;"",_xlfn.CONCAT(B195,"_",E195,"_",I195),"")</f>
+        <f t="shared" ref="J195:J251" si="7">SUBSTITUTE(SUBSTITUTE(IF(I195&lt;&gt;"",_xlfn.CONCAT(B195,"_",E195,"_",I195),""),"_",".")," ",".")</f>
         <v/>
       </c>
       <c r="L195" t="str">
-        <f t="shared" ref="L195:L251" si="7">IF(K195&lt;&gt;"",_xlfn.CONCAT(J195,"_",K195),"")</f>
+        <f t="shared" ref="L195:L251" si="8">IF(K195&lt;&gt;"",_xlfn.CONCAT(J195,"_",K195),"")</f>
         <v/>
       </c>
     </row>
@@ -3924,11 +3498,11 @@
         <v>195</v>
       </c>
       <c r="J196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L196" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3937,11 +3511,11 @@
         <v>196</v>
       </c>
       <c r="J197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L197" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3950,11 +3524,11 @@
         <v>197</v>
       </c>
       <c r="J198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L198" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3963,11 +3537,11 @@
         <v>198</v>
       </c>
       <c r="J199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L199" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3976,11 +3550,11 @@
         <v>199</v>
       </c>
       <c r="J200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L200" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3989,11 +3563,11 @@
         <v>200</v>
       </c>
       <c r="J201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4002,11 +3576,11 @@
         <v>201</v>
       </c>
       <c r="J202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4015,11 +3589,11 @@
         <v>202</v>
       </c>
       <c r="J203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4028,11 +3602,11 @@
         <v>203</v>
       </c>
       <c r="J204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4041,11 +3615,11 @@
         <v>204</v>
       </c>
       <c r="J205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4054,11 +3628,11 @@
         <v>205</v>
       </c>
       <c r="J206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4067,11 +3641,11 @@
         <v>206</v>
       </c>
       <c r="J207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4080,11 +3654,11 @@
         <v>207</v>
       </c>
       <c r="J208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4093,11 +3667,11 @@
         <v>208</v>
       </c>
       <c r="J209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4106,11 +3680,11 @@
         <v>209</v>
       </c>
       <c r="J210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4119,11 +3693,11 @@
         <v>210</v>
       </c>
       <c r="J211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4132,11 +3706,11 @@
         <v>211</v>
       </c>
       <c r="J212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4145,11 +3719,11 @@
         <v>212</v>
       </c>
       <c r="J213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4158,11 +3732,11 @@
         <v>213</v>
       </c>
       <c r="J214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4171,11 +3745,11 @@
         <v>214</v>
       </c>
       <c r="J215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4184,11 +3758,11 @@
         <v>215</v>
       </c>
       <c r="J216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4197,11 +3771,11 @@
         <v>216</v>
       </c>
       <c r="J217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4210,11 +3784,11 @@
         <v>217</v>
       </c>
       <c r="J218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4223,11 +3797,11 @@
         <v>218</v>
       </c>
       <c r="J219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4236,11 +3810,11 @@
         <v>219</v>
       </c>
       <c r="J220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4249,11 +3823,11 @@
         <v>220</v>
       </c>
       <c r="J221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4262,11 +3836,11 @@
         <v>221</v>
       </c>
       <c r="J222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4275,11 +3849,11 @@
         <v>222</v>
       </c>
       <c r="J223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4288,11 +3862,11 @@
         <v>223</v>
       </c>
       <c r="J224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4301,11 +3875,11 @@
         <v>224</v>
       </c>
       <c r="J225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4314,11 +3888,11 @@
         <v>225</v>
       </c>
       <c r="J226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4327,11 +3901,11 @@
         <v>226</v>
       </c>
       <c r="J227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4340,11 +3914,11 @@
         <v>227</v>
       </c>
       <c r="J228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4353,11 +3927,11 @@
         <v>228</v>
       </c>
       <c r="J229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4366,11 +3940,11 @@
         <v>229</v>
       </c>
       <c r="J230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4379,11 +3953,11 @@
         <v>230</v>
       </c>
       <c r="J231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4392,11 +3966,11 @@
         <v>231</v>
       </c>
       <c r="J232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4405,11 +3979,11 @@
         <v>232</v>
       </c>
       <c r="J233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4418,11 +3992,11 @@
         <v>233</v>
       </c>
       <c r="J234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4431,11 +4005,11 @@
         <v>234</v>
       </c>
       <c r="J235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4444,11 +4018,11 @@
         <v>235</v>
       </c>
       <c r="J236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4457,11 +4031,11 @@
         <v>236</v>
       </c>
       <c r="J237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4470,11 +4044,11 @@
         <v>237</v>
       </c>
       <c r="J238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4483,11 +4057,11 @@
         <v>238</v>
       </c>
       <c r="J239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L239" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4496,11 +4070,11 @@
         <v>239</v>
       </c>
       <c r="J240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L240" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4509,11 +4083,11 @@
         <v>240</v>
       </c>
       <c r="J241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L241" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4522,11 +4096,11 @@
         <v>241</v>
       </c>
       <c r="J242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L242" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4535,11 +4109,11 @@
         <v>242</v>
       </c>
       <c r="J243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L243" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4548,11 +4122,11 @@
         <v>243</v>
       </c>
       <c r="J244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L244" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4561,11 +4135,11 @@
         <v>244</v>
       </c>
       <c r="J245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L245" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4574,11 +4148,11 @@
         <v>245</v>
       </c>
       <c r="J246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L246" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4587,11 +4161,11 @@
         <v>246</v>
       </c>
       <c r="J247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L247" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4600,11 +4174,11 @@
         <v>247</v>
       </c>
       <c r="J248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L248" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4613,11 +4187,11 @@
         <v>248</v>
       </c>
       <c r="J249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L249" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4626,11 +4200,11 @@
         <v>249</v>
       </c>
       <c r="J250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L250" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -4639,15 +4213,23 @@
         <v>250</v>
       </c>
       <c r="J251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L251" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M2:M250">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>NOT(ISBLANK($M2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>NOT(ISBLANK($I2))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4677,2614 +4259,300 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F40948-8488-4A33-ABE9-CB0E2F3FF8E9}">
-  <dimension ref="A1:J251"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f>SUM(G2:I2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">SUM(H3:I3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">SUM(H67:I67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="J102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="J105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="J106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="J107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="J108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="J109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="J111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="J115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="J116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="J121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="J123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="J127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="J128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>128</v>
-      </c>
-      <c r="J129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="J130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">SUM(H131:I131)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="J132">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="J134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="J135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="J136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="J137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>137</v>
-      </c>
-      <c r="J138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>138</v>
-      </c>
-      <c r="J139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>139</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>140</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>141</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>142</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>143</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>144</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>145</v>
-      </c>
-      <c r="J146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>146</v>
-      </c>
-      <c r="J147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>147</v>
-      </c>
-      <c r="J148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>148</v>
-      </c>
-      <c r="J149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>149</v>
-      </c>
-      <c r="J150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>150</v>
-      </c>
-      <c r="J151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>151</v>
-      </c>
-      <c r="J152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>152</v>
-      </c>
-      <c r="J153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>153</v>
-      </c>
-      <c r="J154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>154</v>
-      </c>
-      <c r="J155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>155</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>156</v>
-      </c>
-      <c r="J157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>157</v>
-      </c>
-      <c r="J158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>158</v>
-      </c>
-      <c r="J159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>159</v>
-      </c>
-      <c r="J160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>160</v>
-      </c>
-      <c r="J161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>161</v>
-      </c>
-      <c r="J162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>162</v>
-      </c>
-      <c r="J163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>163</v>
-      </c>
-      <c r="J164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>164</v>
-      </c>
-      <c r="J165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>165</v>
-      </c>
-      <c r="J166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>166</v>
-      </c>
-      <c r="J167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>167</v>
-      </c>
-      <c r="J168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>168</v>
-      </c>
-      <c r="J169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>169</v>
-      </c>
-      <c r="J170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>170</v>
-      </c>
-      <c r="J171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>171</v>
-      </c>
-      <c r="J172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>172</v>
-      </c>
-      <c r="J173">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>173</v>
-      </c>
-      <c r="J174">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>174</v>
-      </c>
-      <c r="J175">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>175</v>
-      </c>
-      <c r="J176">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>176</v>
-      </c>
-      <c r="J177">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>177</v>
-      </c>
-      <c r="J178">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>178</v>
-      </c>
-      <c r="J179">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>179</v>
-      </c>
-      <c r="J180">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>180</v>
-      </c>
-      <c r="J181">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>181</v>
-      </c>
-      <c r="J182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>182</v>
-      </c>
-      <c r="J183">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>183</v>
-      </c>
-      <c r="J184">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>184</v>
-      </c>
-      <c r="J185">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>185</v>
-      </c>
-      <c r="J186">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>186</v>
-      </c>
-      <c r="J187">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>187</v>
-      </c>
-      <c r="J188">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>188</v>
-      </c>
-      <c r="J189">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="J190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>190</v>
-      </c>
-      <c r="J191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>191</v>
-      </c>
-      <c r="J192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>192</v>
-      </c>
-      <c r="J193">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>193</v>
-      </c>
-      <c r="J194">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>194</v>
-      </c>
-      <c r="J195">
-        <f t="shared" ref="J195:J251" si="3">SUM(H195:I195)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>195</v>
-      </c>
-      <c r="J196">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>196</v>
-      </c>
-      <c r="J197">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>197</v>
-      </c>
-      <c r="J198">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>198</v>
-      </c>
-      <c r="J199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>199</v>
-      </c>
-      <c r="J200">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>200</v>
-      </c>
-      <c r="J201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>201</v>
-      </c>
-      <c r="J202">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>202</v>
-      </c>
-      <c r="J203">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>203</v>
-      </c>
-      <c r="J204">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>204</v>
-      </c>
-      <c r="J205">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>205</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>206</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>207</v>
-      </c>
-      <c r="J208">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>208</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>209</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>210</v>
-      </c>
-      <c r="J211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>211</v>
-      </c>
-      <c r="J212">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>212</v>
-      </c>
-      <c r="J213">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>213</v>
-      </c>
-      <c r="J214">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>214</v>
-      </c>
-      <c r="J215">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>215</v>
-      </c>
-      <c r="J216">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>216</v>
-      </c>
-      <c r="J217">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>217</v>
-      </c>
-      <c r="J218">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>218</v>
-      </c>
-      <c r="J219">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>219</v>
-      </c>
-      <c r="J220">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>220</v>
-      </c>
-      <c r="J221">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>221</v>
-      </c>
-      <c r="J222">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>222</v>
-      </c>
-      <c r="J223">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>223</v>
-      </c>
-      <c r="J224">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>224</v>
-      </c>
-      <c r="J225">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>225</v>
-      </c>
-      <c r="J226">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>226</v>
-      </c>
-      <c r="J227">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>227</v>
-      </c>
-      <c r="J228">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>228</v>
-      </c>
-      <c r="J229">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>229</v>
-      </c>
-      <c r="J230">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>230</v>
-      </c>
-      <c r="J231">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>231</v>
-      </c>
-      <c r="J232">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>232</v>
-      </c>
-      <c r="J233">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>233</v>
-      </c>
-      <c r="J234">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>234</v>
-      </c>
-      <c r="J235">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
-      <c r="J236">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
-      <c r="J237">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>237</v>
-      </c>
-      <c r="J238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>238</v>
-      </c>
-      <c r="J239">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>239</v>
-      </c>
-      <c r="J240">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>240</v>
-      </c>
-      <c r="J241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
-      <c r="J242">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
-      <c r="J243">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
-      <c r="J244">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
-      <c r="J245">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>245</v>
-      </c>
-      <c r="J246">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>246</v>
-      </c>
-      <c r="J247">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>247</v>
-      </c>
-      <c r="J248">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>248</v>
-      </c>
-      <c r="J249">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>249</v>
-      </c>
-      <c r="J250">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>250</v>
-      </c>
-      <c r="J251">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3B82580C-6819-4D70-A504-0ABCA6784148}">
-          <x14:formula1>
-            <xm:f>dont_touch!$I$1:$I$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F251</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A5D2A5-7BC0-461C-BB32-3B4B0FE4F4B9}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
